--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.286129087429</v>
+        <v>849.3317834122256</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.72359995295781</v>
+        <v>34.84839347967298</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.59089987984589</v>
+        <v>12.26424026387718</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.40342901431629</v>
+        <v>10.74763019642988</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1799.470000000001</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.28</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.31430901573738</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.31116002552194</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.70934855097195</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.094791104416736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.957912867326328</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.68569098426262</v>
+        <v>37.44700908884931</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.68883997447806</v>
+        <v>42.58460255878718</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,169 +1113,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>272.1799999999997</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>263.25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>252.0899999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>270.8449999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>271.8299999999997</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>227.74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>224.715</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>210.72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>225.03</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>225.995</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>146.6850000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>141.6150000000009</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>142.7200000000009</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>148.7900000000009</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>148.2750000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>272.1799999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>263.25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>252.0899999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>270.8449999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>271.8299999999997</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>172.1799999999997</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>152.0899999999997</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8449999999997</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8299999999997</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,7 +2096,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2316,7 +2107,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2327,7 +2118,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2338,7 +2129,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2349,10 +2140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2360,10 +2151,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2371,10 +2162,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2382,10 +2173,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2393,10 +2184,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2404,10 +2195,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2415,10 +2206,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2426,10 +2217,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2437,10 +2228,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2448,78 +2239,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
